--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LichTuDong" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Monday</t>
   </si>
@@ -64,6 +65,21 @@
   </si>
   <si>
     <t>Nộp Bài Tập JS(19/3)</t>
+  </si>
+  <si>
+    <t>Chủ nhật</t>
+  </si>
+  <si>
+    <t>Select Month</t>
+  </si>
+  <si>
+    <t>Select Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -79,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,9 +452,6 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -461,4 +481,171 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>$O$4:$O$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
@@ -515,6 +515,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -532,9 +535,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -931,29 +931,29 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1099,19 +1099,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
@@ -1146,7 +1145,6 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1202,35 +1200,35 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1470,35 +1468,35 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1738,35 +1736,35 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2006,35 +2004,35 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="13" t="str">
+      <c r="C57" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2274,35 +2272,35 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="13" t="str">
+      <c r="C71" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2542,35 +2540,35 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="13" t="str">
+      <c r="C85" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2810,35 +2808,35 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="13" t="str">
+      <c r="C99" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3078,35 +3076,35 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="13" t="str">
+      <c r="C113" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3346,35 +3344,35 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="13" t="str">
+      <c r="C127" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3614,34 +3612,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="13" t="str">
+      <c r="C141" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3880,34 +3878,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="13" t="str">
+      <c r="C155" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4146,22 +4144,22 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Notes:</t>
   </si>
@@ -119,9 +119,6 @@
     <t>1. Làm đồ án LTQL Express 3</t>
   </si>
   <si>
-    <t>1. Xây dựng Sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Học hết Sql </t>
   </si>
   <si>
@@ -129,6 +126,33 @@
   </si>
   <si>
     <t>1.Xem Đồ án QLCF</t>
+  </si>
+  <si>
+    <t>1.Nộp Web JS
+2. Nộp PTTKPMHDHNhom</t>
+  </si>
+  <si>
+    <t>1.Cài Ubuntu và sử dụng</t>
+  </si>
+  <si>
+    <t>1.Báo cáo Management Programming
+2.Tìm hiểu các giải thuật AI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Xây dựng Sql
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. Nhổ răng</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -252,8 +276,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -483,7 +520,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -512,14 +549,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -527,14 +558,29 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -931,7 +977,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,11 +995,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1064,7 +1110,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1099,19 +1145,24 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1145,6 +1196,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1200,22 +1254,22 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1223,12 +1277,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1468,22 +1522,22 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1491,12 +1545,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1736,22 +1790,22 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1759,12 +1813,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="str">
+      <c r="C43" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2004,22 +2058,22 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2027,12 +2081,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="14" t="str">
+      <c r="C57" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2272,22 +2326,22 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2295,12 +2349,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="14" t="str">
+      <c r="C71" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2540,22 +2594,22 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2563,12 +2617,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="14" t="str">
+      <c r="C85" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2808,22 +2862,22 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2831,12 +2885,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="14" t="str">
+      <c r="C99" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3076,22 +3130,22 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3099,12 +3153,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="14" t="str">
+      <c r="C113" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3344,22 +3398,22 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3367,12 +3421,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="14" t="str">
+      <c r="C127" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3612,34 +3666,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="14" t="str">
+      <c r="C141" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3878,34 +3932,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="14" t="str">
+      <c r="C155" s="15" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4144,25 +4198,45 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4179,26 +4253,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Notes:</t>
   </si>
@@ -153,6 +153,9 @@
       </rPr>
       <t>2. Nhổ răng</t>
     </r>
+  </si>
+  <si>
+    <t>1. Hoàn thành Đồ án lập trình .Net</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +558,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -566,21 +590,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -976,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,11 +1004,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1110,7 +1119,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1145,10 +1154,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1157,7 +1166,7 @@
       <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1196,7 +1205,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
@@ -1254,22 +1263,22 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1277,12 +1286,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1522,22 +1531,22 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1545,12 +1554,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1656,7 +1665,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1790,22 +1801,22 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1813,12 +1824,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2058,22 +2069,22 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2081,12 +2092,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="str">
+      <c r="C57" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2326,22 +2337,22 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2349,12 +2360,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="15" t="str">
+      <c r="C71" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2594,22 +2605,22 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2617,12 +2628,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="15" t="str">
+      <c r="C85" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2862,22 +2873,22 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2885,12 +2896,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="15" t="str">
+      <c r="C99" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3130,22 +3141,22 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3153,12 +3164,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="15" t="str">
+      <c r="C113" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3398,22 +3409,22 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3421,12 +3432,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="15" t="str">
+      <c r="C127" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3666,34 +3677,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="15" t="str">
+      <c r="C141" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3932,34 +3943,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="15" t="str">
+      <c r="C155" s="20" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4198,22 +4209,22 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -128,10 +128,6 @@
     <t>1.Xem Đồ án QLCF</t>
   </si>
   <si>
-    <t>1.Nộp Web JS
-2. Nộp PTTKPMHDHNhom</t>
-  </si>
-  <si>
     <t>1.Cài Ubuntu và sử dụng</t>
   </si>
   <si>
@@ -156,6 +152,11 @@
   </si>
   <si>
     <t>1. Hoàn thành Đồ án lập trình .Net</t>
+  </si>
+  <si>
+    <t>1.Nộp Web JS
+2. Nộp PTTKPMHDHNhom
+3. Nộp LTQL Buổi 2 thực hành</t>
   </si>
 </sst>
 </file>
@@ -985,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,17 +1161,17 @@
       <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -1206,7 +1207,7 @@
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1666,7 +1667,7 @@
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Notes:</t>
   </si>
@@ -131,10 +131,6 @@
     <t>1.Cài Ubuntu và sử dụng</t>
   </si>
   <si>
-    <t>1.Báo cáo Management Programming
-2.Tìm hiểu các giải thuật AI</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Xây dựng Sql
 </t>
@@ -157,6 +153,20 @@
     <t>1.Nộp Web JS
 2. Nộp PTTKPMHDHNhom
 3. Nộp LTQL Buổi 2 thực hành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Báo cáo Management Programming
+</t>
+  </si>
+  <si>
+    <t>2.Tìm hiểu các giải thuật AI</t>
+  </si>
+  <si>
+    <t>Đám cưới Chị Thảo</t>
+  </si>
+  <si>
+    <t>1. Làm giấy CMND
+2. Prototype 1 UI (Lập trình quản lí)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +540,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -559,9 +569,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -574,8 +581,8 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -583,11 +590,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -986,8 +993,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,11 +1012,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1120,7 +1127,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1155,20 +1162,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>11</v>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>7</v>
@@ -1206,15 +1213,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
-        <v>8</v>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1249,7 +1260,9 @@
     <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1264,22 +1277,22 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1287,12 +1300,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1532,22 +1545,22 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1555,12 +1568,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1667,7 +1680,7 @@
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1802,22 +1815,22 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1825,12 +1838,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="str">
+      <c r="C43" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2070,22 +2083,22 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2093,12 +2106,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="20" t="str">
+      <c r="C57" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2338,22 +2351,22 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2361,12 +2374,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="20" t="str">
+      <c r="C71" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2606,22 +2619,22 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2629,12 +2642,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="20" t="str">
+      <c r="C85" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2874,22 +2887,22 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2897,12 +2910,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="20" t="str">
+      <c r="C99" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3142,22 +3155,22 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3165,12 +3178,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="20" t="str">
+      <c r="C113" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3410,22 +3423,22 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3433,12 +3446,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="20" t="str">
+      <c r="C127" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3678,34 +3691,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="20" t="str">
+      <c r="C141" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3944,34 +3957,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="20" t="str">
+      <c r="C155" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4210,45 +4223,25 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4265,6 +4258,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
+    <sheet name="ChiPhiArduino" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Calendar10Month">Calendar!$C$127</definedName>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Notes:</t>
   </si>
@@ -167,6 +168,33 @@
   <si>
     <t>1. Làm giấy CMND
 2. Prototype 1 UI (Lập trình quản lí)</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Sỏi</t>
+  </si>
+  <si>
+    <t>1.5kg</t>
+  </si>
+  <si>
+    <t>Mô tưa</t>
+  </si>
+  <si>
+    <t>Ống tim</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Tổng giá</t>
+  </si>
+  <si>
+    <t>Trí</t>
   </si>
 </sst>
 </file>
@@ -298,7 +326,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +574,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -581,8 +615,8 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -590,14 +624,20 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -993,7 +1033,7 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1012,11 +1052,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1277,22 +1317,22 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1300,12 +1340,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1556,11 +1596,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1568,12 +1608,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1826,11 +1866,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1838,12 +1878,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2094,11 +2134,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2106,12 +2146,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2362,11 +2402,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2374,12 +2414,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="16" t="str">
+      <c r="C71" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2630,11 +2670,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2642,12 +2682,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="16" t="str">
+      <c r="C85" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2898,11 +2938,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2910,12 +2950,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="16" t="str">
+      <c r="C99" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3166,11 +3206,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3178,12 +3218,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="16" t="str">
+      <c r="C113" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3434,11 +3474,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3446,12 +3486,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="16" t="str">
+      <c r="C127" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3702,23 +3742,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="16" t="str">
+      <c r="C141" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3968,23 +4008,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="16" t="str">
+      <c r="C155" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4234,14 +4274,34 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4258,26 +4318,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4383,4 +4423,83 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="23">
+        <v>23</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>12</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,7 +96,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
@@ -615,8 +615,11 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -624,20 +627,17 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1037,26 +1037,26 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1328,24 +1328,24 @@
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1585,35 +1585,35 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1855,35 +1855,35 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="str">
+      <c r="C43" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2123,35 +2123,35 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="19" t="str">
+      <c r="C57" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2391,35 +2391,35 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="19" t="str">
+      <c r="C71" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2659,35 +2659,35 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="19" t="str">
+      <c r="C85" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2927,35 +2927,35 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="19" t="str">
+      <c r="C99" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3195,35 +3195,35 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="19" t="str">
+      <c r="C113" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3463,35 +3463,35 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="19" t="str">
+      <c r="C127" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3731,34 +3731,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="19" t="str">
+      <c r="C141" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3997,34 +3997,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="19" t="str">
+      <c r="C155" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4263,45 +4263,25 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4318,6 +4298,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4433,68 +4433,68 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="16">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="16">
         <v>12</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <v>10</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,15 +5,14 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
-    <sheet name="ChiPhiArduino" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Calendar10Month">Calendar!$C$127</definedName>
@@ -96,7 +95,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Notes:</t>
   </si>
@@ -163,44 +162,14 @@
     <t>2.Tìm hiểu các giải thuật AI</t>
   </si>
   <si>
-    <t>Đám cưới Chị Thảo</t>
-  </si>
-  <si>
     <t>1. Làm giấy CMND
 2. Prototype 1 UI (Lập trình quản lí)</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Sỏi</t>
-  </si>
-  <si>
-    <t>1.5kg</t>
-  </si>
-  <si>
-    <t>Mô tưa</t>
-  </si>
-  <si>
-    <t>Ống tim</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Tổng giá</t>
-  </si>
-  <si>
-    <t>Trí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
@@ -326,7 +295,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +537,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -615,11 +578,8 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -627,17 +587,14 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1033,30 +990,30 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1258,14 +1215,12 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1328,24 +1283,24 @@
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1585,35 +1540,35 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1855,35 +1810,35 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="17" t="str">
+      <c r="C43" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2123,35 +2078,35 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="17" t="str">
+      <c r="C57" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2391,35 +2346,35 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="17" t="str">
+      <c r="C71" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2659,35 +2614,35 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="17" t="str">
+      <c r="C85" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2927,35 +2882,35 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="17" t="str">
+      <c r="C99" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3195,35 +3150,35 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="17" t="str">
+      <c r="C113" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3463,35 +3418,35 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="17" t="str">
+      <c r="C127" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3731,34 +3686,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="17" t="str">
+      <c r="C141" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3997,34 +3952,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="17" t="str">
+      <c r="C155" s="19" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4263,25 +4218,45 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4298,26 +4273,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4423,83 +4378,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="16">
-        <v>23</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16">
-        <v>12</v>
-      </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16">
-        <v>10</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
+    <sheet name="Công việc hằng ngày" sheetId="15" r:id="rId2"/>
+    <sheet name="Công việc tuần" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Calendar10Month">Calendar!$C$127</definedName>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Notes:</t>
   </si>
@@ -114,9 +116,6 @@
   </si>
   <si>
     <t>March</t>
-  </si>
-  <si>
-    <t>1. Làm đồ án LTQL Express 3</t>
   </si>
   <si>
     <t xml:space="preserve">1. Học hết Sql </t>
@@ -155,27 +154,109 @@
 3. Nộp LTQL Buổi 2 thực hành</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Báo cáo Management Programming
-</t>
-  </si>
-  <si>
     <t>2.Tìm hiểu các giải thuật AI</t>
   </si>
   <si>
     <t>1. Làm giấy CMND
 2. Prototype 1 UI (Lập trình quản lí)</t>
   </si>
+  <si>
+    <t>Kiểm tra Web Programming</t>
+  </si>
+  <si>
+    <t>Kiểm Tra HQT-CSDL: Sql server</t>
+  </si>
+  <si>
+    <t>PTTKPMHDT Nhóm</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Luyên 10 bài SQL Server</t>
+  </si>
+  <si>
+    <t>Luyện 10 bài giải thuật C++</t>
+  </si>
+  <si>
+    <t>Đọc 1 đoạn ít nhất 100 chữ English</t>
+  </si>
+  <si>
+    <t>Tiến độ hoàn thành tuần</t>
+  </si>
+  <si>
+    <t>Hít đất 10 cái - 3 lần</t>
+  </si>
+  <si>
+    <t>Ngửa gập bụng 10 cái - 3 lần</t>
+  </si>
+  <si>
+    <t>Chóng và đá chân 10 cái - 3 lần</t>
+  </si>
+  <si>
+    <t>Ngửa gập bụng + đá chân 10 cái - 3 lần</t>
+  </si>
+  <si>
+    <t>Hít đất gác chân 45 độ 10 cái - 3 lần</t>
+  </si>
+  <si>
+    <t>Chuyên ngành</t>
+  </si>
+  <si>
+    <t>Thể chất</t>
+  </si>
+  <si>
+    <t>Thiết kế UI Đồ án cá nhân</t>
+  </si>
+  <si>
+    <t>Hoàn thành thiết kế UI Đồ án cá nhân</t>
+  </si>
+  <si>
+    <t>Đồ án QLCF - Bài 9,10,11,12</t>
+  </si>
+  <si>
+    <t>Đồ án QLCF - Bài 13,14,15,16</t>
+  </si>
+  <si>
+    <t>Đồ án QLCF - Bài 17,18,19,20</t>
+  </si>
+  <si>
+    <t>Đồ án QLCF - Bài 21,22,23,24</t>
+  </si>
+  <si>
+    <t>Đồ án QLCF - Bài 25,26,27</t>
+  </si>
+  <si>
+    <t>Ôn các bài Web chuẩn bị kiểm tra</t>
+  </si>
+  <si>
+    <t>Ôn tất cả kiểm tra</t>
+  </si>
+  <si>
+    <t>Xem lại các bài Web</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,8 +375,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +436,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,70 +601,70 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="5" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="5" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="11" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -575,26 +673,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -990,8 +1111,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,11 +1130,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1124,9 +1245,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -1160,22 +1279,22 @@
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -1210,12 +1329,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1256,12 +1373,18 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -1272,22 +1395,26 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1295,12 +1422,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1367,11 +1494,21 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
@@ -1447,8 +1584,12 @@
     <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
@@ -1551,11 +1692,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1563,12 +1704,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1675,7 +1816,7 @@
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1821,11 +1962,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1833,12 +1974,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="str">
+      <c r="C43" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2089,11 +2230,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2101,12 +2242,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="19" t="str">
+      <c r="C57" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2357,11 +2498,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2369,12 +2510,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="19" t="str">
+      <c r="C71" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2625,11 +2766,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2637,12 +2778,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="19" t="str">
+      <c r="C85" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -2893,11 +3034,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2905,12 +3046,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="19" t="str">
+      <c r="C99" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3161,11 +3302,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3173,12 +3314,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="19" t="str">
+      <c r="C113" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3429,11 +3570,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3441,12 +3582,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="19" t="str">
+      <c r="C127" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3697,23 +3838,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="19" t="str">
+      <c r="C141" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -3963,23 +4104,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="19" t="str">
+      <c r="C155" s="16" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4229,34 +4370,14 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4273,8 +4394,28 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
     <cfRule type="expression" dxfId="11" priority="38">
       <formula>MONTH(B3)&lt;&gt;Calendar1MonthOption</formula>
@@ -4353,7 +4494,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter monthly Notes in this cell" sqref="D14:H14"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendar year is automatically updated based on the year selected in cell B1" sqref="B29 B43 B57 B71 B85 B99 B113 B127 B141 B155"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendar month is automatically updated based on the month selected in cell C1" sqref="C141:E141 C29:E29 C43:E43 C57:E57 C71:E71 C85:E85 C99:E99 C113:E113 C127:E127 C155:E155"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Automatically determined weekday. To change weekdays, select a new week start day in cell B2" sqref="C16 D16 E16:H16 B30:H30 B44:H44 B58:H58 B72:H72 B86:H86 B100:H100 B114:H114 B128:H128 B142:H142 B156:H156"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Automatically determined weekday. To change weekdays, select a new week start day in cell B2" sqref="C16:H16 B30:H30 B44:H44 B58:H58 B72:H72 B86:H86 B100:H100 B114:H114 B128:H128 B142:H142 B156:H156"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.45" bottom="0.45" header="0.5" footer="0.5"/>
@@ -4378,4 +4519,169 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="22"/>
+    <col min="3" max="3" width="33.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="26">
+        <v>44288</v>
+      </c>
+      <c r="E2" s="26">
+        <v>44289</v>
+      </c>
+      <c r="F2" s="26">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="23">
+        <v>7</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="23">
+        <v>8</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
@@ -245,7 +245,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -676,8 +676,22 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -685,35 +699,21 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,11 +1130,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1395,13 +1395,13 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1410,11 +1410,11 @@
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1422,12 +1422,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1681,22 +1681,22 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1704,12 +1704,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1951,22 +1951,22 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1974,12 +1974,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2219,22 +2219,22 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2242,12 +2242,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2487,22 +2487,22 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2510,12 +2510,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="16" t="str">
+      <c r="C71" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2755,22 +2755,22 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2778,12 +2778,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="16" t="str">
+      <c r="C85" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -3023,22 +3023,22 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -3046,12 +3046,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="16" t="str">
+      <c r="C99" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3291,22 +3291,22 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3314,12 +3314,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="16" t="str">
+      <c r="C113" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3559,22 +3559,22 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3582,12 +3582,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="16" t="str">
+      <c r="C127" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3827,34 +3827,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="16" t="str">
+      <c r="C141" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -4093,34 +4093,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="16" t="str">
+      <c r="C155" s="25" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4359,25 +4359,45 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4394,26 +4414,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4525,139 +4525,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="22"/>
-    <col min="3" max="3" width="33.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="12.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="33.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>44288</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="19">
         <v>44289</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="19">
         <v>44290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="23">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="23">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="23">
+      <c r="A9" s="30"/>
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="23">
+      <c r="A10" s="30"/>
+      <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23">
+      <c r="A11" s="30"/>
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="23">
+      <c r="A12" s="30"/>
+      <c r="B12" s="17">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Notes:</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Luyện 10 bài giải thuật C++</t>
   </si>
   <si>
-    <t>Đọc 1 đoạn ít nhất 100 chữ English</t>
-  </si>
-  <si>
     <t>Tiến độ hoàn thành tuần</t>
   </si>
   <si>
@@ -238,11 +235,17 @@
   <si>
     <t>Xem lại các bài Web</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Phát âm IPA + 10 từ vựng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -635,7 +638,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -688,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
@@ -1111,30 +1117,30 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1380,10 +1386,10 @@
         <v>14</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,39 +1401,39 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1495,16 +1501,16 @@
     </row>
     <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>12</v>
@@ -1585,7 +1591,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>13</v>
@@ -1681,35 +1687,35 @@
         <f ca="1"/>
         <v>44320</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="25" t="str">
+      <c r="C29" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1951,35 +1957,35 @@
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="25" t="str">
+      <c r="C43" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2219,35 +2225,35 @@
         <f ca="1"/>
         <v>44383</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="25" t="str">
+      <c r="C57" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2487,35 +2493,35 @@
         <f ca="1"/>
         <v>44411</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="25" t="str">
+      <c r="C71" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2755,35 +2761,35 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="25" t="str">
+      <c r="C85" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -3023,35 +3029,35 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="25" t="str">
+      <c r="C99" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3291,35 +3297,35 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="25" t="str">
+      <c r="C113" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3559,35 +3565,35 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="25" t="str">
+      <c r="C127" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3827,34 +3833,34 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="22"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="25" t="str">
+      <c r="C141" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -4093,34 +4099,34 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="25" t="str">
+      <c r="C155" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4359,22 +4365,22 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="22"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -4523,30 +4529,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="16"/>
-    <col min="3" max="3" width="33.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="12.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="16"/>
+    <col min="3" max="3" width="33.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -4567,8 +4573,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>26</v>
+      <c r="A3" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
@@ -4576,90 +4582,126 @@
       <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="17"/>
       <c r="C6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="22"/>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>27</v>
+      <c r="A8" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="17">
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="17">
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="17">
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4680,7 +4722,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
@@ -696,8 +696,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -705,13 +705,13 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8">
@@ -1117,7 +1117,7 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1136,11 +1136,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1401,13 +1401,13 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1416,11 +1416,11 @@
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
@@ -1428,12 +1428,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1698,11 +1698,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
@@ -1710,12 +1710,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1968,11 +1968,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
@@ -1980,12 +1980,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="26" t="str">
+      <c r="C43" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2236,11 +2236,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
@@ -2248,12 +2248,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="26" t="str">
+      <c r="C57" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2504,11 +2504,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
@@ -2516,12 +2516,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="26" t="str">
+      <c r="C71" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2772,11 +2772,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
@@ -2784,12 +2784,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="26" t="str">
+      <c r="C85" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -3040,11 +3040,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
@@ -3052,12 +3052,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="26" t="str">
+      <c r="C99" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3308,11 +3308,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
@@ -3320,12 +3320,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="26" t="str">
+      <c r="C113" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3576,11 +3576,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
@@ -3588,12 +3588,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="26" t="str">
+      <c r="C127" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3844,23 +3844,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="26" t="str">
+      <c r="C141" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -4110,23 +4110,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="26" t="str">
+      <c r="C155" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4376,34 +4376,14 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4420,6 +4400,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4531,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -696,8 +696,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -705,13 +705,13 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8">
@@ -1117,30 +1117,30 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1401,13 +1401,13 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1416,24 +1416,24 @@
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1698,24 +1698,24 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C29" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1968,24 +1968,24 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="str">
+      <c r="C43" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2236,24 +2236,24 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="23" t="str">
+      <c r="C57" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2504,24 +2504,24 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="23" t="str">
+      <c r="C71" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2772,24 +2772,24 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="23" t="str">
+      <c r="C85" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -3040,24 +3040,24 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="23" t="str">
+      <c r="C99" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3308,24 +3308,24 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="23" t="str">
+      <c r="C113" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3576,24 +3576,24 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="23" t="str">
+      <c r="C127" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3844,23 +3844,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="23" t="str">
+      <c r="C141" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -4110,23 +4110,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="23" t="str">
+      <c r="C155" s="26" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4376,14 +4376,34 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4400,26 +4420,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4535,14 +4535,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="16"/>
-    <col min="3" max="3" width="33.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="16"/>
+    <col min="1" max="1" width="12.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="33.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,7 +4600,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="17">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="17"/>
       <c r="C6" s="16" t="s">
@@ -4722,7 +4722,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calender.xlsx
+++ b/Calender.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File-HK2-Nam3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMING\Desktop\IT\File-HK2-Nam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
     <definedName name="WeekStart">Calendar!$B$2</definedName>
     <definedName name="WeekStartValue">IF(WeekStart="Monday",2,1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -696,8 +696,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -705,13 +705,13 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="8">
@@ -1117,30 +1117,30 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1401,13 +1401,13 @@
         <f ca="1"/>
         <v>44292</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1416,24 +1416,24 @@
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2"/>
@@ -1698,24 +1698,24 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="2"/>
@@ -1968,24 +1968,24 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="26" t="str">
+      <c r="C43" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="2"/>
@@ -2236,24 +2236,24 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="26" t="str">
+      <c r="C57" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="2"/>
@@ -2504,24 +2504,24 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
       <c r="B71" s="1">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C71" s="26" t="str">
+      <c r="C71" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2772,24 +2772,24 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-    </row>
-    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
       <c r="B85" s="1">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C85" s="26" t="str">
+      <c r="C85" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
@@ -3040,24 +3040,24 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-    </row>
-    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
       <c r="B99" s="1">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C99" s="26" t="str">
+      <c r="C99" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="2"/>
@@ -3308,24 +3308,24 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
       <c r="B113" s="1">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C113" s="26" t="str">
+      <c r="C113" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="2"/>
@@ -3576,24 +3576,24 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-    </row>
-    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
       <c r="B127" s="1">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C127" s="26" t="str">
+      <c r="C127" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="2"/>
@@ -3844,23 +3844,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-    </row>
-    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+    </row>
+    <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="26" t="str">
+      <c r="C141" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="2"/>
@@ -4110,23 +4110,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-    </row>
-    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+    </row>
+    <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="26" t="str">
+      <c r="C155" s="23" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="2"/>
@@ -4376,34 +4376,14 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4420,6 +4400,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4535,14 +4535,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="16"/>
-    <col min="3" max="3" width="33.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="12.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="16"/>
+    <col min="3" max="3" width="33.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,7 +4600,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="17">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="17"/>
       <c r="C6" s="16" t="s">
@@ -4722,7 +4722,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
